--- a/data/trans_orig/P6709-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>31899</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21585</v>
+        <v>22240</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44206</v>
+        <v>45216</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1146775762555716</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07759695651842483</v>
+        <v>0.0799522254087625</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1589201149078247</v>
+        <v>0.1625536495579642</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -763,19 +763,19 @@
         <v>21628</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13540</v>
+        <v>13662</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33093</v>
+        <v>31540</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09818883462364926</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06147073885489673</v>
+        <v>0.06202247533204433</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1502383322355618</v>
+        <v>0.1431891447704348</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -784,19 +784,19 @@
         <v>53527</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40766</v>
+        <v>40782</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69378</v>
+        <v>66430</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1073908331986204</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08178830996473442</v>
+        <v>0.08182224892308551</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1391937083716566</v>
+        <v>0.1332788375623523</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>15414</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8722</v>
+        <v>8601</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24363</v>
+        <v>24987</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05541325008974767</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03135602678225559</v>
+        <v>0.03091991158548723</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08758448566762586</v>
+        <v>0.08982813569787858</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -834,19 +834,19 @@
         <v>20808</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13076</v>
+        <v>13290</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32838</v>
+        <v>33139</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09446501570955274</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05936652806751464</v>
+        <v>0.06033758240994009</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1490830420045496</v>
+        <v>0.1504512921491684</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -855,19 +855,19 @@
         <v>36221</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24235</v>
+        <v>25553</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49607</v>
+        <v>50750</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07267109719197225</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04862259369514757</v>
+        <v>0.05126726219638287</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09952592452060391</v>
+        <v>0.1018205705143614</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>60828</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47658</v>
+        <v>47758</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>76325</v>
+        <v>74396</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2186792135822209</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1713304056212022</v>
+        <v>0.1716908719613016</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2743913580732567</v>
+        <v>0.2674571079921249</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>45</v>
@@ -905,19 +905,19 @@
         <v>50602</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>37784</v>
+        <v>37353</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>65093</v>
+        <v>64268</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2297315496905921</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1715391245681592</v>
+        <v>0.1695803312939403</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.295517555988138</v>
+        <v>0.291772518048925</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>102</v>
@@ -926,19 +926,19 @@
         <v>111430</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>92337</v>
+        <v>93018</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>131508</v>
+        <v>133232</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2235634876644133</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1852567259473853</v>
+        <v>0.1866221051608019</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2638461076944575</v>
+        <v>0.267304883829757</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>58306</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44312</v>
+        <v>46157</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72741</v>
+        <v>73937</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2096107717926674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1593040315072162</v>
+        <v>0.1659372531752042</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2615069486498212</v>
+        <v>0.2658047522676609</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -976,19 +976,19 @@
         <v>35863</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25419</v>
+        <v>25177</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48388</v>
+        <v>47663</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1628155302948447</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1154021533202605</v>
+        <v>0.1142999404935845</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2196766600830881</v>
+        <v>0.2163865262210032</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>89</v>
@@ -997,19 +997,19 @@
         <v>94168</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>77189</v>
+        <v>77738</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114328</v>
+        <v>112679</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1889309098180904</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1548646738096714</v>
+        <v>0.155966903103064</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2293781206301702</v>
+        <v>0.2260685833462971</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>111715</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>95827</v>
+        <v>94886</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>129115</v>
+        <v>128247</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4016191882797925</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.344500610401611</v>
+        <v>0.3411160401746886</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4641725320050379</v>
+        <v>0.4610520914222733</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>86</v>
@@ -1047,19 +1047,19 @@
         <v>91367</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>77454</v>
+        <v>77815</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>105639</v>
+        <v>108317</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4147990696813612</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.351636648948032</v>
+        <v>0.3532758362910568</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4795942369059477</v>
+        <v>0.4917547530042884</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>189</v>
@@ -1068,19 +1068,19 @@
         <v>203081</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>182259</v>
+        <v>182499</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>226284</v>
+        <v>226084</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4074436721269036</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3656669752812329</v>
+        <v>0.3661491687621284</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4539946110618956</v>
+        <v>0.4535946519806499</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>19497</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12099</v>
+        <v>11855</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29391</v>
+        <v>29664</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05127839184202693</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03182137729855417</v>
+        <v>0.03117909650211914</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07729893885083799</v>
+        <v>0.07801829260053615</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1193,19 +1193,19 @@
         <v>35521</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26016</v>
+        <v>25834</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48755</v>
+        <v>48460</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1403282925042997</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1027776605819838</v>
+        <v>0.1020563061137967</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.192608462098791</v>
+        <v>0.1914433648741302</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -1214,19 +1214,19 @@
         <v>55019</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42189</v>
+        <v>41338</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71709</v>
+        <v>71068</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08686865203030285</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0666116896030555</v>
+        <v>0.06526772449891934</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1132215582674197</v>
+        <v>0.1122096188641981</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>47923</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36122</v>
+        <v>35191</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>64220</v>
+        <v>63773</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1260402397257436</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09500108391262756</v>
+        <v>0.09255460729303096</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1689008326137659</v>
+        <v>0.1677251530746598</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1264,19 +1264,19 @@
         <v>16769</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10094</v>
+        <v>10033</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26423</v>
+        <v>26261</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06624713932192887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0398748274895491</v>
+        <v>0.03963582283626048</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1043856021196447</v>
+        <v>0.1037450739359525</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>59</v>
@@ -1285,19 +1285,19 @@
         <v>64693</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>50536</v>
+        <v>50623</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>82985</v>
+        <v>82804</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1021429418623104</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07979082440368937</v>
+        <v>0.07992932778441234</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1310241065840079</v>
+        <v>0.1307385599381071</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>85624</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>69971</v>
+        <v>69611</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>101977</v>
+        <v>101755</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2251939709094843</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1840253343233341</v>
+        <v>0.1830799446953272</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2682031388379057</v>
+        <v>0.2676189506820792</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -1335,19 +1335,19 @@
         <v>55687</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>42450</v>
+        <v>41525</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>70281</v>
+        <v>69890</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2199920498238571</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1677010013566461</v>
+        <v>0.164047013599801</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2776470736266341</v>
+        <v>0.2761048260953921</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>132</v>
@@ -1356,19 +1356,19 @@
         <v>141311</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>121312</v>
+        <v>122061</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>163829</v>
+        <v>165589</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2231149374289361</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.191538633827943</v>
+        <v>0.1927224735749243</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2586688591724536</v>
+        <v>0.2614483470003341</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>96712</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78996</v>
+        <v>80955</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113550</v>
+        <v>114614</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2543570149815933</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2077619935052571</v>
+        <v>0.2129139589885546</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2986397617032486</v>
+        <v>0.3014391196610943</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -1406,19 +1406,19 @@
         <v>51950</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38984</v>
+        <v>40502</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65223</v>
+        <v>66967</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2052320864669016</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1540059050454987</v>
+        <v>0.1600066091238737</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2576661730501157</v>
+        <v>0.2645542533187091</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>144</v>
@@ -1427,19 +1427,19 @@
         <v>148663</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>128165</v>
+        <v>125706</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>172664</v>
+        <v>170932</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2347234278066999</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2023591590410137</v>
+        <v>0.1984768229481772</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2726195614781202</v>
+        <v>0.2698842691829683</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>130466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>111659</v>
+        <v>112062</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>148451</v>
+        <v>149867</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3431303825411519</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2936676561418913</v>
+        <v>0.294727981352203</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.39043228360437</v>
+        <v>0.3941566052780833</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -1477,19 +1477,19 @@
         <v>93203</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76106</v>
+        <v>77874</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>108209</v>
+        <v>110481</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3682004318830127</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.300657946880067</v>
+        <v>0.3076441511937463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4274840945592585</v>
+        <v>0.4364582550579728</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>210</v>
@@ -1498,19 +1498,19 @@
         <v>223669</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>199840</v>
+        <v>200748</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>249463</v>
+        <v>249784</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3531500408717507</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3155269483308342</v>
+        <v>0.3169609881143217</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.393876564940367</v>
+        <v>0.3943831021388809</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>28076</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18376</v>
+        <v>17724</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42422</v>
+        <v>42233</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06200120882906707</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04058039843778583</v>
+        <v>0.03914018267665405</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09368064389150156</v>
+        <v>0.09326265151998764</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1623,19 +1623,19 @@
         <v>14831</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8397</v>
+        <v>8679</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24339</v>
+        <v>23894</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05362011982095104</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03035922922481395</v>
+        <v>0.0313773443972162</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08799250977277059</v>
+        <v>0.08638496548303165</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -1644,19 +1644,19 @@
         <v>42908</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30395</v>
+        <v>30602</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58572</v>
+        <v>57156</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05882313599852787</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04166952664644832</v>
+        <v>0.04195283822160209</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08029781641263928</v>
+        <v>0.07835686322454173</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>24790</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16667</v>
+        <v>16403</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36118</v>
+        <v>35331</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05474403104854524</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03680479341130626</v>
+        <v>0.03622322408272897</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07975950160844004</v>
+        <v>0.07802237431496389</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -1694,19 +1694,19 @@
         <v>20743</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12284</v>
+        <v>12534</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31422</v>
+        <v>31123</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07499291917935677</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04441089124033542</v>
+        <v>0.04531293235630814</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1135998386237323</v>
+        <v>0.1125214413319654</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>43</v>
@@ -1715,19 +1715,19 @@
         <v>45533</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>33544</v>
+        <v>33281</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>61798</v>
+        <v>60106</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06242232215783217</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04598662094390207</v>
+        <v>0.0456252457900728</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08471993401012673</v>
+        <v>0.08240104404056292</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>93141</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>76271</v>
+        <v>75320</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>113364</v>
+        <v>112175</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2056829819364043</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1684297873725808</v>
+        <v>0.1663290958006387</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2503420170217386</v>
+        <v>0.2477156831055972</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>49</v>
@@ -1765,19 +1765,19 @@
         <v>50861</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38545</v>
+        <v>38700</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63780</v>
+        <v>63289</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1838805919947364</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1393548216108986</v>
+        <v>0.1399139301423149</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.230588193956696</v>
+        <v>0.2288123070431372</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>136</v>
@@ -1786,19 +1786,19 @@
         <v>144002</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>122546</v>
+        <v>123906</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>165431</v>
+        <v>168132</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1974156096358193</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1680007255228921</v>
+        <v>0.1698651543629565</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2267929764498781</v>
+        <v>0.2304961674731838</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>120609</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>101213</v>
+        <v>102506</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>140279</v>
+        <v>140963</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2663408075017606</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.223508377952616</v>
+        <v>0.2263645606133386</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3097784613147395</v>
+        <v>0.3112892502089185</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>76</v>
@@ -1836,19 +1836,19 @@
         <v>80709</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66509</v>
+        <v>65902</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>96381</v>
+        <v>97780</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2917905427796171</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2404541087337384</v>
+        <v>0.2382572337440918</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3484503321020968</v>
+        <v>0.3535075152393795</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>192</v>
@@ -1857,19 +1857,19 @@
         <v>201318</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>175047</v>
+        <v>178350</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>226296</v>
+        <v>227198</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2759912374342726</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2399760972778093</v>
+        <v>0.244504713261743</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3102342473525996</v>
+        <v>0.3114714601517453</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>186220</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>165149</v>
+        <v>165882</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>208834</v>
+        <v>211351</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4112309706842228</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3646998717859535</v>
+        <v>0.3663190814494658</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4611699058505123</v>
+        <v>0.4667283729298528</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>103</v>
@@ -1907,19 +1907,19 @@
         <v>109455</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>91244</v>
+        <v>93826</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>126149</v>
+        <v>129127</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3957158262253387</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3298789538117222</v>
+        <v>0.339213686847358</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4560710091731089</v>
+        <v>0.4668372734665979</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>280</v>
@@ -1928,19 +1928,19 @@
         <v>295675</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>269083</v>
+        <v>268597</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>322883</v>
+        <v>323734</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.405347694773548</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3688926687691372</v>
+        <v>0.3682256485560335</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4426481995196705</v>
+        <v>0.4438151275356681</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>18130</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10618</v>
+        <v>10332</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30305</v>
+        <v>29421</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06135802459802054</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03593558324278028</v>
+        <v>0.03496729940425586</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1025628262991179</v>
+        <v>0.0995721979725791</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -2053,19 +2053,19 @@
         <v>19066</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11790</v>
+        <v>11978</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28863</v>
+        <v>30595</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1027485304589771</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06353859460411244</v>
+        <v>0.06455078935875333</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1555442627125696</v>
+        <v>0.1648792958447544</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -2074,19 +2074,19 @@
         <v>37196</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25541</v>
+        <v>26994</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>51820</v>
+        <v>53111</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07732463470466233</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05309572377209684</v>
+        <v>0.05611544529506666</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1077258560176368</v>
+        <v>0.1104102708307142</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>11039</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5471</v>
+        <v>5462</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20065</v>
+        <v>20988</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03736101504561017</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0185156038203137</v>
+        <v>0.01848582197731079</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06790695779263825</v>
+        <v>0.07103091738141874</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2124,19 +2124,19 @@
         <v>8992</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4029</v>
+        <v>3986</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17990</v>
+        <v>16498</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04845877508726376</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02171351755372768</v>
+        <v>0.02147822527996401</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09694901920057536</v>
+        <v>0.08890563339541475</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -2145,19 +2145,19 @@
         <v>20031</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12255</v>
+        <v>12338</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>31413</v>
+        <v>32570</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04164203563128263</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02547640649934114</v>
+        <v>0.02564875980270906</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06530323449540672</v>
+        <v>0.06770743162590501</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>55616</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>42594</v>
+        <v>42955</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>70336</v>
+        <v>71002</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1882251998902272</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1441526891503557</v>
+        <v>0.1453769986786709</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2380422008972435</v>
+        <v>0.2402976984596271</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>35</v>
@@ -2195,19 +2195,19 @@
         <v>39085</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29346</v>
+        <v>28702</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>52202</v>
+        <v>52110</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2106310045634327</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1581467998005982</v>
+        <v>0.1546748333360514</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2813186775258679</v>
+        <v>0.2808233542465837</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>87</v>
@@ -2216,19 +2216,19 @@
         <v>94701</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>77839</v>
+        <v>77842</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>114201</v>
+        <v>114993</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1968683594723889</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1618149262838078</v>
+        <v>0.1618205632085856</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2374057901785535</v>
+        <v>0.2390531652305269</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>79320</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>64834</v>
+        <v>63521</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97012</v>
+        <v>97237</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2684497453032227</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2194215167248417</v>
+        <v>0.2149803875282456</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3283257376029639</v>
+        <v>0.3290866755438424</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -2266,19 +2266,19 @@
         <v>40397</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29126</v>
+        <v>30423</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53002</v>
+        <v>53422</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2176971841678434</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1569608719135212</v>
+        <v>0.1639472395208998</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.285627277045429</v>
+        <v>0.2878895658816052</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>111</v>
@@ -2287,19 +2287,19 @@
         <v>119716</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101510</v>
+        <v>99157</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>141470</v>
+        <v>139125</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2488716720541471</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2110229337353358</v>
+        <v>0.2061315960267838</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2940945273206753</v>
+        <v>0.2892192566651817</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>131370</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>114159</v>
+        <v>114168</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>148227</v>
+        <v>152736</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4446060151629193</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3863589562209976</v>
+        <v>0.386387225030224</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5016560905004631</v>
+        <v>0.5169160614599501</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>69</v>
@@ -2337,19 +2337,19 @@
         <v>78023</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>64924</v>
+        <v>64081</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>93547</v>
+        <v>92518</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.420464505722483</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3498733256634607</v>
+        <v>0.3453326668820559</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5041246515127348</v>
+        <v>0.4985804343029273</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>188</v>
@@ -2358,19 +2358,19 @@
         <v>209392</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>187118</v>
+        <v>187260</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>233087</v>
+        <v>234965</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.435293298137519</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3889894904620619</v>
+        <v>0.3892837351069546</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4845507561878989</v>
+        <v>0.4884555074251077</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>97602</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>79077</v>
+        <v>77962</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>121758</v>
+        <v>121279</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06938406559149476</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05621481400472045</v>
+        <v>0.05542233454644655</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08655606496073839</v>
+        <v>0.08621562094687145</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>85</v>
@@ -2483,19 +2483,19 @@
         <v>91047</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>73863</v>
+        <v>74005</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>110409</v>
+        <v>111010</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09731794589575324</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07895022709050659</v>
+        <v>0.07910278960918679</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1180138767668654</v>
+        <v>0.1186561781117324</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>172</v>
@@ -2504,19 +2504,19 @@
         <v>188649</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>163406</v>
+        <v>160818</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>219915</v>
+        <v>218465</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08054159437134163</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06976441503394955</v>
+        <v>0.06865953287633693</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09389034421687965</v>
+        <v>0.09327108255465812</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>99167</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>81046</v>
+        <v>81890</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>119310</v>
+        <v>122144</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07049611694188303</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05761440742943752</v>
+        <v>0.05821436956635425</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08481576867458507</v>
+        <v>0.08683076133121309</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>60</v>
@@ -2554,19 +2554,19 @@
         <v>67312</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>53090</v>
+        <v>51928</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>87427</v>
+        <v>84806</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07194819389559716</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05674732701239777</v>
+        <v>0.05550504615401054</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09344860687264135</v>
+        <v>0.09064752292834169</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>152</v>
@@ -2575,19 +2575,19 @@
         <v>166478</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>142272</v>
+        <v>143768</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>195510</v>
+        <v>193409</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07107611478769423</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06074128627260537</v>
+        <v>0.06138013322568001</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08347090116672835</v>
+        <v>0.08257380973733058</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>295209</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>264656</v>
+        <v>264548</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>331151</v>
+        <v>328643</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.209859617426504</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1881403173304054</v>
+        <v>0.1880634771911337</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2354103026213751</v>
+        <v>0.233627929379485</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>177</v>
@@ -2625,19 +2625,19 @@
         <v>196235</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>168817</v>
+        <v>172341</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>223383</v>
+        <v>223408</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2097520072227942</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1804447705933502</v>
+        <v>0.1842123769216204</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2387693945663864</v>
+        <v>0.2387962927018483</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>457</v>
@@ -2646,19 +2646,19 @@
         <v>491444</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>454971</v>
+        <v>447024</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>535142</v>
+        <v>531656</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2098166350720362</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1942450194070686</v>
+        <v>0.1908521370807165</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2284729693616475</v>
+        <v>0.2269848368004811</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>354947</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>322534</v>
+        <v>321552</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>389887</v>
+        <v>388322</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2523267627580866</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2292847912923467</v>
+        <v>0.2285870228489031</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.277165381441361</v>
+        <v>0.2760523671236008</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>198</v>
@@ -2696,19 +2696,19 @@
         <v>208919</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>183949</v>
+        <v>183645</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>234768</v>
+        <v>233766</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2233090603598762</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1966199336336727</v>
+        <v>0.1962942080903398</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2509390396504367</v>
+        <v>0.2498677496329493</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>536</v>
@@ -2717,19 +2717,19 @@
         <v>563866</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>524205</v>
+        <v>519763</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>606778</v>
+        <v>606913</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2407363268391747</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2238035592754706</v>
+        <v>0.2219071283043899</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2590571561014716</v>
+        <v>0.2591150631345366</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>559771</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>520089</v>
+        <v>523482</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>594386</v>
+        <v>598078</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3979334372820316</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3697237102608735</v>
+        <v>0.3721357048609136</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.422540500943816</v>
+        <v>0.4251653532223501</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>343</v>
@@ -2767,19 +2767,19 @@
         <v>372046</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>341321</v>
+        <v>343334</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>404858</v>
+        <v>403172</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3976727926259792</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3648316325949871</v>
+        <v>0.3669830675906897</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4327445286717049</v>
+        <v>0.4309433047890803</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>867</v>
@@ -2788,19 +2788,19 @@
         <v>931817</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>884488</v>
+        <v>882329</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>982488</v>
+        <v>984233</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3978293289297533</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.377622792224532</v>
+        <v>0.3767006707826658</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4194628255094847</v>
+        <v>0.4202077249804959</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>30568</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21291</v>
+        <v>21144</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43513</v>
+        <v>42930</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1041213351545032</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07252122728652362</v>
+        <v>0.0720233861220158</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1482159596473279</v>
+        <v>0.146228803861365</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -3153,19 +3153,19 @@
         <v>27260</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18576</v>
+        <v>19297</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37811</v>
+        <v>39237</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09833058622437481</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06700399132853481</v>
+        <v>0.06960769661676235</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1363897191748224</v>
+        <v>0.1415316263954964</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -3174,19 +3174,19 @@
         <v>57828</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43924</v>
+        <v>43886</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74842</v>
+        <v>74750</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1013088807843005</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07695121343315701</v>
+        <v>0.07688397320717136</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1311150744705167</v>
+        <v>0.13095522777364</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>44073</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32461</v>
+        <v>33218</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59044</v>
+        <v>57076</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1501224497295965</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1105703873420212</v>
+        <v>0.113148421974841</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2011197117092052</v>
+        <v>0.1944167419896848</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -3224,19 +3224,19 @@
         <v>54957</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42433</v>
+        <v>41474</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67844</v>
+        <v>68527</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1982353031022502</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1530612059070345</v>
+        <v>0.1496011741467371</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2447186531890709</v>
+        <v>0.2471831492623388</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>94</v>
@@ -3245,19 +3245,19 @@
         <v>99030</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>81458</v>
+        <v>81971</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>119328</v>
+        <v>119019</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1734899288525156</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1427065789194146</v>
+        <v>0.1436047748179635</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2090498961249792</v>
+        <v>0.2085096099035157</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>96274</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>80786</v>
+        <v>80320</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114204</v>
+        <v>112786</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3279344859697062</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2751772690630667</v>
+        <v>0.2735913171610397</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3890059730692287</v>
+        <v>0.3841767789716964</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>84</v>
@@ -3295,19 +3295,19 @@
         <v>85394</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>69837</v>
+        <v>68532</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>100320</v>
+        <v>100295</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.308025652872082</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2519092572142849</v>
+        <v>0.2472024060282433</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3618635767212252</v>
+        <v>0.3617732558226367</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>173</v>
@@ -3316,19 +3316,19 @@
         <v>181669</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>155944</v>
+        <v>158949</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>204400</v>
+        <v>203122</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3182651521189969</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2731975728253737</v>
+        <v>0.2784631032490353</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3580878164483847</v>
+        <v>0.3558489170208264</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>53847</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41333</v>
+        <v>40869</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67655</v>
+        <v>68248</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1834163920629625</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1407904229766143</v>
+        <v>0.1392104064430565</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2304497896510146</v>
+        <v>0.2324698390498131</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -3366,19 +3366,19 @@
         <v>43866</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32175</v>
+        <v>32816</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56779</v>
+        <v>56849</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1582290611414668</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.116057050564172</v>
+        <v>0.1183723571134443</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.204807331991895</v>
+        <v>0.2050597575109906</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -3387,19 +3387,19 @@
         <v>97713</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79995</v>
+        <v>81046</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>116657</v>
+        <v>117696</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1711833942627399</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1401428630631589</v>
+        <v>0.1419837362493303</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.204372123573406</v>
+        <v>0.2061908353669447</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>68816</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53750</v>
+        <v>55093</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84196</v>
+        <v>85021</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2344053370832316</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1830851118900286</v>
+        <v>0.1876590758400786</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2867912977596377</v>
+        <v>0.2896042555487701</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>63</v>
@@ -3437,19 +3437,19 @@
         <v>65753</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>53459</v>
+        <v>51926</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>81758</v>
+        <v>81719</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2371793966598263</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1928317190668498</v>
+        <v>0.1873036801908775</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2949077214228552</v>
+        <v>0.2947695765930601</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>125</v>
@@ -3458,19 +3458,19 @@
         <v>134570</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>114941</v>
+        <v>113925</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>156173</v>
+        <v>155623</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2357526439814472</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2013653780522645</v>
+        <v>0.1995856893289612</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2735991672689616</v>
+        <v>0.2726351747196707</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>36295</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25745</v>
+        <v>25507</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49790</v>
+        <v>48456</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09295092205830049</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06593243474442123</v>
+        <v>0.06532391814958621</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1275114921744162</v>
+        <v>0.1240964685162741</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -3583,19 +3583,19 @@
         <v>25041</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16896</v>
+        <v>17228</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35765</v>
+        <v>35108</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09272698815297777</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06256538200087557</v>
+        <v>0.06379601575692304</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.13243769744225</v>
+        <v>0.1300034242656074</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -3604,19 +3604,19 @@
         <v>61336</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47950</v>
+        <v>46807</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77545</v>
+        <v>79990</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09285936796194402</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07259324920273053</v>
+        <v>0.07086305869757423</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1173981266136828</v>
+        <v>0.1211003614813609</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>54172</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>41588</v>
+        <v>41077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>70239</v>
+        <v>69516</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1387329439096575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1065071701059752</v>
+        <v>0.1051975111226104</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1798821799577145</v>
+        <v>0.1780287485443171</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -3654,19 +3654,19 @@
         <v>39728</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29243</v>
+        <v>29153</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52056</v>
+        <v>52709</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1471100298601055</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1082876953906036</v>
+        <v>0.1079527990868359</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1927622088814637</v>
+        <v>0.1951803007939224</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>90</v>
@@ -3675,19 +3675,19 @@
         <v>93899</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>76258</v>
+        <v>76791</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>113438</v>
+        <v>113459</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.142157867586081</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1154497726609173</v>
+        <v>0.1162567925066555</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1717386032956715</v>
+        <v>0.171770449119769</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>130431</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>113583</v>
+        <v>110151</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>151299</v>
+        <v>148683</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3340334618903518</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2908847249901921</v>
+        <v>0.2820950843778202</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3874756047834854</v>
+        <v>0.3807748945418142</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>66</v>
@@ -3725,19 +3725,19 @@
         <v>64846</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51912</v>
+        <v>53117</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>79698</v>
+        <v>79299</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.240124007493846</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1922304112468474</v>
+        <v>0.1966917758172251</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2951189683775343</v>
+        <v>0.2936411657345767</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>188</v>
@@ -3746,19 +3746,19 @@
         <v>195278</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>170417</v>
+        <v>172275</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>217659</v>
+        <v>217525</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2956391185942325</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2580008168481497</v>
+        <v>0.260814403874473</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3295228599038211</v>
+        <v>0.3293197321076065</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>86304</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71295</v>
+        <v>71318</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105214</v>
+        <v>102770</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2210245912461081</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1825864700462538</v>
+        <v>0.1826451037724638</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2694529497579477</v>
+        <v>0.2631918267275183</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -3796,19 +3796,19 @@
         <v>61942</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48747</v>
+        <v>49415</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75838</v>
+        <v>76383</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2293707124817569</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1805093651683986</v>
+        <v>0.1829825419224627</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2808275451460521</v>
+        <v>0.2828449741598607</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>145</v>
@@ -3817,19 +3817,19 @@
         <v>148247</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>127944</v>
+        <v>128596</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>172780</v>
+        <v>169916</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2244368551759947</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1936999608425825</v>
+        <v>0.194686945225521</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2615796880207758</v>
+        <v>0.2572429571586835</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>83272</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>68043</v>
+        <v>68211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>103220</v>
+        <v>101447</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2132580808955822</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1742564675171841</v>
+        <v>0.1746873685757875</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2643459899639147</v>
+        <v>0.2598036636123568</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>74</v>
@@ -3867,19 +3867,19 @@
         <v>78496</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64741</v>
+        <v>63849</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95327</v>
+        <v>94892</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2906682620113137</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2397333989365698</v>
+        <v>0.2364313727427337</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3529936407562754</v>
+        <v>0.3513812096795879</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>152</v>
@@ -3888,19 +3888,19 @@
         <v>161768</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>140117</v>
+        <v>140050</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>185940</v>
+        <v>183338</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2449067906817478</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2121284190593949</v>
+        <v>0.2120269313208495</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2815027154021571</v>
+        <v>0.2775635144732826</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>54806</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40639</v>
+        <v>41151</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>69509</v>
+        <v>70507</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1201393438154258</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08908409706299143</v>
+        <v>0.09020651797190318</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.152368372088588</v>
+        <v>0.1545574933125929</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -4013,19 +4013,19 @@
         <v>29852</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20960</v>
+        <v>20445</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41612</v>
+        <v>41323</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1027146790017896</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07211877540345757</v>
+        <v>0.07034672351303865</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1431778491395367</v>
+        <v>0.1421821191771009</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -4034,19 +4034,19 @@
         <v>84659</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67190</v>
+        <v>67392</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>103105</v>
+        <v>103707</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1133583314234005</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08996777121079128</v>
+        <v>0.09023832037894715</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.138057431659337</v>
+        <v>0.1388641200973171</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>56633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44458</v>
+        <v>43101</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>72086</v>
+        <v>70986</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1241446911076813</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09745540938486516</v>
+        <v>0.09448105903790047</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1580189151644491</v>
+        <v>0.1556058577206745</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -4084,19 +4084,19 @@
         <v>35267</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25142</v>
+        <v>24121</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46377</v>
+        <v>46887</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1213434263010091</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08650558661535973</v>
+        <v>0.08299492626323315</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1595721178190341</v>
+        <v>0.1613249077744145</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>91</v>
@@ -4105,19 +4105,19 @@
         <v>91900</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>74703</v>
+        <v>74187</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>110779</v>
+        <v>111018</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1230545460994098</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1000269375116882</v>
+        <v>0.09933619113842562</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.148333796424498</v>
+        <v>0.1486533409899501</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>105285</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>86326</v>
+        <v>88618</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>124274</v>
+        <v>125137</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.230792919602986</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1892329099044948</v>
+        <v>0.1942586752878475</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2724184171716685</v>
+        <v>0.2743107586273175</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>76</v>
@@ -4155,19 +4155,19 @@
         <v>73529</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>60581</v>
+        <v>60455</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>89478</v>
+        <v>89282</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2529959969816353</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2084432542614764</v>
+        <v>0.2080083444456233</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3078713105766679</v>
+        <v>0.3071969568142359</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>174</v>
@@ -4176,19 +4176,19 @@
         <v>178815</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>155145</v>
+        <v>155748</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>202014</v>
+        <v>201097</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2394335072100368</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2077391752539191</v>
+        <v>0.2085476085842789</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2704972064735524</v>
+        <v>0.2692697688520295</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>120003</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>102337</v>
+        <v>101999</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>140811</v>
+        <v>139223</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2630556773334372</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2243304061567289</v>
+        <v>0.2235909313676356</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3086695772487412</v>
+        <v>0.3051869408813461</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>92</v>
@@ -4226,19 +4226,19 @@
         <v>92107</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>74687</v>
+        <v>76391</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>106038</v>
+        <v>108722</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3169174523854121</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2569794909985311</v>
+        <v>0.2628401126322485</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3648507769871102</v>
+        <v>0.374085080013085</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>205</v>
@@ -4247,19 +4247,19 @@
         <v>212110</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>189199</v>
+        <v>189636</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>238514</v>
+        <v>239174</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2840166179305899</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2533376938931065</v>
+        <v>0.2539234252122232</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3193708256574142</v>
+        <v>0.3202546235406858</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>119461</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>103291</v>
+        <v>100545</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>140848</v>
+        <v>139180</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2618673681404697</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2264230389372203</v>
+        <v>0.2204032937591868</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3087493603102352</v>
+        <v>0.3050945800151686</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -4297,19 +4297,19 @@
         <v>59879</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47165</v>
+        <v>46611</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>73644</v>
+        <v>75508</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2060284453301538</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1622838900708207</v>
+        <v>0.1603774596528608</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2533914266436524</v>
+        <v>0.2598030836946233</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>170</v>
@@ -4318,19 +4318,19 @@
         <v>179340</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>156864</v>
+        <v>154450</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>203253</v>
+        <v>205704</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.240136997336563</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.210041583987951</v>
+        <v>0.2068094260086999</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2721558765886081</v>
+        <v>0.275438801278504</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>32472</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22191</v>
+        <v>22600</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44781</v>
+        <v>45086</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1180146226163743</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08065193925943137</v>
+        <v>0.08213795115209907</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.162752476547225</v>
+        <v>0.1638600598211747</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -4443,19 +4443,19 @@
         <v>26818</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17759</v>
+        <v>18193</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38425</v>
+        <v>37894</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1381921475931725</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09151242462541177</v>
+        <v>0.09374986463859507</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1980027248669978</v>
+        <v>0.1952646667024131</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>55</v>
@@ -4464,19 +4464,19 @@
         <v>59290</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>45374</v>
+        <v>44744</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>76509</v>
+        <v>73798</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1263599090499998</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09670327448646096</v>
+        <v>0.09535987389575974</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1630585126690066</v>
+        <v>0.1572800189588876</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>32562</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22491</v>
+        <v>21926</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>45415</v>
+        <v>44537</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1183425395905812</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08174058245680713</v>
+        <v>0.07968723249146591</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1650548317714824</v>
+        <v>0.1618661115934819</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>18</v>
@@ -4514,19 +4514,19 @@
         <v>20452</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12604</v>
+        <v>12413</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>31213</v>
+        <v>30152</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1053894830617809</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06494659972414789</v>
+        <v>0.06396269564653814</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1608416337511793</v>
+        <v>0.155371216972019</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>47</v>
@@ -4535,19 +4535,19 @@
         <v>53014</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>39769</v>
+        <v>40683</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>69664</v>
+        <v>68832</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1129852439337511</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08475614994568481</v>
+        <v>0.08670421872964057</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1484707725138379</v>
+        <v>0.1466978037080485</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>44203</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32929</v>
+        <v>33271</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58014</v>
+        <v>59228</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1606525312585068</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1196776779167501</v>
+        <v>0.1209209420263269</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2108455007478128</v>
+        <v>0.2152563714521751</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>39</v>
@@ -4585,19 +4585,19 @@
         <v>39738</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>28980</v>
+        <v>28574</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>52040</v>
+        <v>51109</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2047662841263669</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1493323194379335</v>
+        <v>0.1472426684534484</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2681591775348126</v>
+        <v>0.2633619784348065</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>79</v>
@@ -4606,19 +4606,19 @@
         <v>83941</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>67389</v>
+        <v>68061</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>101998</v>
+        <v>102144</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1788976779634561</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1436211260803152</v>
+        <v>0.1450538178118801</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2173823347230683</v>
+        <v>0.2176929351228892</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>57180</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43323</v>
+        <v>44823</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>71809</v>
+        <v>73133</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2078159621099817</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1574533269469338</v>
+        <v>0.1629027493022175</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2609816715412469</v>
+        <v>0.2657934169397577</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -4656,19 +4656,19 @@
         <v>38167</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27096</v>
+        <v>28014</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49527</v>
+        <v>50538</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1966718749419823</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1396230720790003</v>
+        <v>0.1443534245781631</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2552098287599054</v>
+        <v>0.2604214862226641</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>89</v>
@@ -4677,19 +4677,19 @@
         <v>95347</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>79279</v>
+        <v>78531</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>114587</v>
+        <v>114793</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.203206843817962</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1689614191008151</v>
+        <v>0.1673683809670276</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2442124033713886</v>
+        <v>0.2446515409001633</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>108732</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>92535</v>
+        <v>92942</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>126357</v>
+        <v>126021</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.395174344424556</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.336308613087015</v>
+        <v>0.3377862732376062</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.459232979190529</v>
+        <v>0.4580109862347875</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>64</v>
@@ -4727,19 +4727,19 @@
         <v>68889</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>55499</v>
+        <v>55570</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>83452</v>
+        <v>83635</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3549802102766973</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2859837938197102</v>
+        <v>0.2863495615105453</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4300278434475679</v>
+        <v>0.4309704491029915</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>163</v>
@@ -4748,19 +4748,19 @@
         <v>177620</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>154559</v>
+        <v>157434</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>199774</v>
+        <v>200656</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.378550325234831</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3294013887701122</v>
+        <v>0.3355281264851467</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4257652299375321</v>
+        <v>0.4276436526055904</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>154140</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>131931</v>
+        <v>131157</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>182754</v>
+        <v>181375</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1089031980598312</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09321153977040562</v>
+        <v>0.09266493390360368</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1291188654044911</v>
+        <v>0.1281449832965552</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>106</v>
@@ -4873,19 +4873,19 @@
         <v>108972</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>89790</v>
+        <v>90212</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>128937</v>
+        <v>129717</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.105594824457821</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08700777897429646</v>
+        <v>0.08741579178983659</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1249409537926773</v>
+        <v>0.1256969947758013</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>245</v>
@@ -4894,19 +4894,19 @@
         <v>263112</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>233892</v>
+        <v>232285</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>294022</v>
+        <v>295767</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.107508158357065</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0955687866202521</v>
+        <v>0.0949121415539888</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1201378470689725</v>
+        <v>0.1208510337224727</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>187440</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>161679</v>
+        <v>163548</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>214764</v>
+        <v>217348</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1324296009474132</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1142294933365347</v>
+        <v>0.1155495889326412</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1517347423589412</v>
+        <v>0.1535607275509137</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>146</v>
@@ -4944,19 +4944,19 @@
         <v>150403</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>129074</v>
+        <v>128681</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>173960</v>
+        <v>172781</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1457421805258227</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.12507391893179</v>
+        <v>0.1246932841351073</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1685684116660814</v>
+        <v>0.1674261290072379</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>322</v>
@@ -4965,19 +4965,19 @@
         <v>337843</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>302684</v>
+        <v>302675</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>372475</v>
+        <v>372707</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1380431075498211</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1236773528138526</v>
+        <v>0.1236733966506788</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1521937450594692</v>
+        <v>0.1522884930016902</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>376194</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>345216</v>
+        <v>340785</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>412574</v>
+        <v>408640</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2657884479878167</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2439017629672488</v>
+        <v>0.2407714454473856</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2914917429385204</v>
+        <v>0.2887116772061909</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>265</v>
@@ -5015,19 +5015,19 @@
         <v>263508</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>234422</v>
+        <v>236336</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>290649</v>
+        <v>292541</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2553411920075158</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2271569085661746</v>
+        <v>0.2290117217858581</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2816419972798185</v>
+        <v>0.2834752159685342</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>614</v>
@@ -5036,19 +5036,19 @@
         <v>639702</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>599224</v>
+        <v>597093</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>685610</v>
+        <v>688458</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2613831604868446</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2448440573766059</v>
+        <v>0.2439732155667861</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2801411182600638</v>
+        <v>0.2813051544294409</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>317335</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>284235</v>
+        <v>286747</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>348406</v>
+        <v>349659</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2242030843508588</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2008171006152461</v>
+        <v>0.202592390478819</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.246155150209984</v>
+        <v>0.2470406044324327</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>232</v>
@@ -5086,19 +5086,19 @@
         <v>236082</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>209510</v>
+        <v>209961</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>263645</v>
+        <v>265944</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2287659228403153</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2030172520335007</v>
+        <v>0.2034543893111097</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2554745477136336</v>
+        <v>0.2577025713233896</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>533</v>
@@ -5107,19 +5107,19 @@
         <v>553417</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>509617</v>
+        <v>510575</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>592171</v>
+        <v>589988</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2261270934307989</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2082304012075817</v>
+        <v>0.2086217784397437</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2419617960002791</v>
+        <v>0.241070049743162</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>380281</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>346818</v>
+        <v>346095</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>417512</v>
+        <v>415278</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2686756686540801</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2450331779701608</v>
+        <v>0.2445228270151142</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2949799557225452</v>
+        <v>0.2934015445921134</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>259</v>
@@ -5157,19 +5157,19 @@
         <v>273017</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>242142</v>
+        <v>244427</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>301515</v>
+        <v>301595</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2645558801685252</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2346375391886334</v>
+        <v>0.2368518353438034</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2921706797034234</v>
+        <v>0.2922483788985625</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>610</v>
@@ -5178,19 +5178,19 @@
         <v>653298</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>604248</v>
+        <v>611974</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>698809</v>
+        <v>699587</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2669384801754705</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2468966277549824</v>
+        <v>0.250053533626165</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2855343132885327</v>
+        <v>0.2858521681545796</v>
       </c>
     </row>
     <row r="33">
